--- a/secure/26e-Aviva.xlsx
+++ b/secure/26e-Aviva.xlsx
@@ -28,13 +28,13 @@
     <t>c</t>
   </si>
   <si>
-    <t>26e-Aviva-911559</t>
+    <t>26e-Aviva-862696</t>
   </si>
   <si>
-    <t>26e-Aviva-755580</t>
+    <t>26e-Aviva-725091</t>
   </si>
   <si>
-    <t>26e-Aviva-729214</t>
+    <t>26e-Aviva-325160</t>
   </si>
 </sst>
 </file>
@@ -66,7 +66,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="Fe472f9e"/>
+        <fgColor rgb="Feb63584"/>
       </patternFill>
     </fill>
   </fills>
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV503"/>
+  <dimension ref="A1:QT503"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1129,11 +1129,14 @@
       </c>
       <c r="M113" s="4"/>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:219" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>-0.552</v>
       </c>
       <c r="M114" s="4"/>
+      <c r="HK114" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
@@ -1273,14 +1276,11 @@
       </c>
       <c r="M137" s="4"/>
     </row>
-    <row r="138" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>-0.456</v>
       </c>
       <c r="M138" s="4"/>
-      <c r="IV138" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
@@ -1516,14 +1516,11 @@
       </c>
       <c r="M177" s="4"/>
     </row>
-    <row r="178" spans="1:159" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>-0.296</v>
       </c>
       <c r="M178" s="4"/>
-      <c r="FC178" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
@@ -2395,11 +2392,14 @@
       </c>
       <c r="M323" s="4"/>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:421" x14ac:dyDescent="0.25">
       <c r="A324" s="3">
         <v>0.288</v>
       </c>
       <c r="M324" s="4"/>
+      <c r="PE324" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325" s="3">
@@ -2929,14 +2929,11 @@
       </c>
       <c r="M412" s="4"/>
     </row>
-    <row r="413" spans="1:240" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A413" s="3">
         <v>0.644</v>
       </c>
       <c r="M413" s="4"/>
-      <c r="IF413" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="414" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A414" s="3">
@@ -3184,11 +3181,14 @@
       </c>
       <c r="M454" s="4"/>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:462" x14ac:dyDescent="0.25">
       <c r="A455" s="3">
         <v>0.812</v>
       </c>
       <c r="M455" s="4"/>
+      <c r="QT455" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="456" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A456" s="3">
